--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Gdf1-Acvr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Gdf1</t>
+  </si>
+  <si>
+    <t>Acvr1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Gdf1</t>
-  </si>
-  <si>
-    <t>Acvr1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,13 +519,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.040985</v>
+        <v>0.006993666666666666</v>
       </c>
       <c r="H2">
-        <v>0.122955</v>
+        <v>0.020981</v>
       </c>
       <c r="I2">
-        <v>0.739877123412142</v>
+        <v>0.4853567132414176</v>
       </c>
       <c r="J2">
-        <v>0.7398771234121421</v>
+        <v>0.4853567132414175</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N2">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O2">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P2">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q2">
-        <v>0.2072921979683333</v>
+        <v>0.02862983802244444</v>
       </c>
       <c r="R2">
-        <v>1.865629781715</v>
+        <v>0.257668542202</v>
       </c>
       <c r="S2">
-        <v>0.1282790159581408</v>
+        <v>0.0781865097664146</v>
       </c>
       <c r="T2">
-        <v>0.1282790159581409</v>
+        <v>0.07818650976641457</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,13 +581,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.040985</v>
+        <v>0.006993666666666666</v>
       </c>
       <c r="H3">
-        <v>0.122955</v>
+        <v>0.020981</v>
       </c>
       <c r="I3">
-        <v>0.739877123412142</v>
+        <v>0.4853567132414176</v>
       </c>
       <c r="J3">
-        <v>0.7398771234121421</v>
+        <v>0.4853567132414175</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>42.742233</v>
       </c>
       <c r="O3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P3">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q3">
-        <v>0.583930139835</v>
+        <v>0.09964164339699999</v>
       </c>
       <c r="R3">
-        <v>5.255371258515</v>
+        <v>0.8967747905729999</v>
       </c>
       <c r="S3">
-        <v>0.3613545732086659</v>
+        <v>0.2721158365790841</v>
       </c>
       <c r="T3">
-        <v>0.361354573208666</v>
+        <v>0.2721158365790841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +643,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.040985</v>
+        <v>0.006993666666666666</v>
       </c>
       <c r="H4">
-        <v>0.122955</v>
+        <v>0.020981</v>
       </c>
       <c r="I4">
-        <v>0.739877123412142</v>
+        <v>0.4853567132414176</v>
       </c>
       <c r="J4">
-        <v>0.7398771234121421</v>
+        <v>0.4853567132414175</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N4">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P4">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q4">
-        <v>0.4043804971033333</v>
+        <v>0.04945334764277777</v>
       </c>
       <c r="R4">
-        <v>3.63942447393</v>
+        <v>0.445080128785</v>
       </c>
       <c r="S4">
-        <v>0.2502435342453352</v>
+        <v>0.1350543668959189</v>
       </c>
       <c r="T4">
-        <v>0.2502435342453352</v>
+        <v>0.1350543668959188</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,13 +705,13 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.006993666666666666</v>
+        <v>0.007415666666666667</v>
       </c>
       <c r="H5">
-        <v>0.020981</v>
+        <v>0.022247</v>
       </c>
       <c r="I5">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="J5">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.057757666666666</v>
+        <v>4.093680666666667</v>
       </c>
       <c r="N5">
-        <v>15.173273</v>
+        <v>12.281042</v>
       </c>
       <c r="O5">
-        <v>0.173378811020062</v>
+        <v>0.1610908176055751</v>
       </c>
       <c r="P5">
-        <v>0.173378811020062</v>
+        <v>0.161090817605575</v>
       </c>
       <c r="Q5">
-        <v>0.03537227120144444</v>
+        <v>0.03035737126377778</v>
       </c>
       <c r="R5">
-        <v>0.318350440813</v>
+        <v>0.273216341374</v>
       </c>
       <c r="S5">
-        <v>0.02188948829911555</v>
+        <v>0.08290430783916046</v>
       </c>
       <c r="T5">
-        <v>0.02188948829911556</v>
+        <v>0.08290430783916045</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -782,16 +782,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.006993666666666666</v>
+        <v>0.007415666666666667</v>
       </c>
       <c r="H6">
-        <v>0.020981</v>
+        <v>0.022247</v>
       </c>
       <c r="I6">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="J6">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>42.742233</v>
       </c>
       <c r="O6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="P6">
-        <v>0.4883980890531961</v>
+        <v>0.5606512265211691</v>
       </c>
       <c r="Q6">
-        <v>0.09964164339699999</v>
+        <v>0.105654050839</v>
       </c>
       <c r="R6">
-        <v>0.8967747905729999</v>
+        <v>0.950886457551</v>
       </c>
       <c r="S6">
-        <v>0.06166142328893513</v>
+        <v>0.2885353899420849</v>
       </c>
       <c r="T6">
-        <v>0.06166142328893514</v>
+        <v>0.2885353899420849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -844,16 +844,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.006993666666666666</v>
+        <v>0.007415666666666667</v>
       </c>
       <c r="H7">
-        <v>0.020981</v>
+        <v>0.022247</v>
       </c>
       <c r="I7">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="J7">
-        <v>0.1262523844195856</v>
+        <v>0.5146432867585824</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.866548666666667</v>
+        <v>7.071161666666666</v>
       </c>
       <c r="N7">
-        <v>29.599646</v>
+        <v>21.213485</v>
       </c>
       <c r="O7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="P7">
-        <v>0.3382230999267418</v>
+        <v>0.2782579558732559</v>
       </c>
       <c r="Q7">
-        <v>0.06900335252511111</v>
+        <v>0.05243737786611111</v>
       </c>
       <c r="R7">
-        <v>0.621030172726</v>
+        <v>0.4719364007949999</v>
       </c>
       <c r="S7">
-        <v>0.04270147283153493</v>
+        <v>0.143203588977337</v>
       </c>
       <c r="T7">
-        <v>0.04270147283153494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.007415666666666667</v>
-      </c>
-      <c r="H8">
-        <v>0.022247</v>
-      </c>
-      <c r="I8">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="J8">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>5.057757666666666</v>
-      </c>
-      <c r="N8">
-        <v>15.173273</v>
-      </c>
-      <c r="O8">
-        <v>0.173378811020062</v>
-      </c>
-      <c r="P8">
-        <v>0.173378811020062</v>
-      </c>
-      <c r="Q8">
-        <v>0.03750664493677778</v>
-      </c>
-      <c r="R8">
-        <v>0.337559804431</v>
-      </c>
-      <c r="S8">
-        <v>0.02321030676280557</v>
-      </c>
-      <c r="T8">
-        <v>0.02321030676280558</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.007415666666666667</v>
-      </c>
-      <c r="H9">
-        <v>0.022247</v>
-      </c>
-      <c r="I9">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="J9">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>14.247411</v>
-      </c>
-      <c r="N9">
-        <v>42.742233</v>
-      </c>
-      <c r="O9">
-        <v>0.4883980890531961</v>
-      </c>
-      <c r="P9">
-        <v>0.4883980890531961</v>
-      </c>
-      <c r="Q9">
-        <v>0.105654050839</v>
-      </c>
-      <c r="R9">
-        <v>0.950886457551</v>
-      </c>
-      <c r="S9">
-        <v>0.06538209255559506</v>
-      </c>
-      <c r="T9">
-        <v>0.06538209255559506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.007415666666666667</v>
-      </c>
-      <c r="H10">
-        <v>0.022247</v>
-      </c>
-      <c r="I10">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="J10">
-        <v>0.1338704921682723</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.866548666666667</v>
-      </c>
-      <c r="N10">
-        <v>29.599646</v>
-      </c>
-      <c r="O10">
-        <v>0.3382230999267418</v>
-      </c>
-      <c r="P10">
-        <v>0.3382230999267418</v>
-      </c>
-      <c r="Q10">
-        <v>0.07316703606244444</v>
-      </c>
-      <c r="R10">
-        <v>0.658503324562</v>
-      </c>
-      <c r="S10">
-        <v>0.04527809284987168</v>
-      </c>
-      <c r="T10">
-        <v>0.04527809284987168</v>
+        <v>0.143203588977337</v>
       </c>
     </row>
   </sheetData>
